--- a/results/mind_aim2-1_gee_AAPC_results_phenotypic_incidence.xlsx
+++ b/results/mind_aim2-1_gee_AAPC_results_phenotypic_incidence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tm-pham/academia/hsph/mind/data/mind_manuscript_tab_gee_results_Dec2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tm-pham/academia/hsph/mind/publications/aim2-1/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D297434-025B-3748-8E8F-3D7B733171EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F555D77E-10BD-4A42-82BC-D1F66F126761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FQL_class_R" sheetId="1" r:id="rId1"/>
@@ -25,23 +25,19 @@
     <sheet name="anti_st..._S" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'anti_st..._R'!$B$1:$C$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'anti_st..._S'!$B$1:$C$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'CPH_03_..._R'!$B$1:$C$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'CPH_03_..._S'!$B$1:$C$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CPM_class_R!$B$1:$C$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">CPM_class_S!$C$1:$C$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FQL_class_R!$B$1:$C$55</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FQL_class_S!$B$1:$C$55</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">VANC_R!$B$1:$C$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">VANC_S!$B$1:$C$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'anti_st..._R'!$A$1:$I$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'anti_st..._S'!$A$1:$I$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FQL_class_R!$A$1:$I$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FQL_class_S!$A$1:$I$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">VANC_R!$A$1:$I$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">VANC_S!$A$1:$I$13</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="500">
   <si>
     <t>organismofinterest</t>
   </si>
@@ -1490,6 +1486,57 @@
   </si>
   <si>
     <t>11.5*</t>
+  </si>
+  <si>
+    <t>-2.6% (95%CI: [ -5.2,  0.0])</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.4% (95%CI: [ -4.0, 22.5])</t>
+  </si>
+  <si>
+    <t>-2.2% (95%CI: [ -5.7,  1.4])</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.0% (95%CI: [-10.0, 22.5])</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-3.0% (95%CI: [ -6.1,  0.2])</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>12.0% (95%CI: [ -4.2, 30.9])</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.5% (95%CI: [ -0.4,  9.6])</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1.3% (95%CI: [-16.6, 23.2])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3.8% (95%CI: [ -2.9, 10.9])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.4% (95%CI: [-24.6, 44.4])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5.3% (95%CI: [ -0.6, 11.5])</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1.6% (95%CI: [-25.1, 29.2])</t>
   </si>
 </sst>
 </file>
@@ -1827,10 +1874,14 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23:I55"/>
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1927,54 +1978,54 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>-3.8</v>
+        <v>-8.5</v>
       </c>
       <c r="E4">
-        <v>-5.8</v>
+        <v>-10.4</v>
       </c>
       <c r="F4">
-        <v>-1.8</v>
+        <v>-6.6</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
       <c r="D5">
-        <v>-8.5</v>
+        <v>1.7</v>
       </c>
       <c r="E5">
-        <v>-10.4</v>
+        <v>-11.1</v>
       </c>
       <c r="F5">
-        <v>-6.6</v>
+        <v>16.2</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -1982,31 +2033,31 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6">
-        <v>-16.899999999999999</v>
+        <v>-3.8</v>
       </c>
       <c r="E6">
-        <v>-25.2</v>
+        <v>-5.8</v>
       </c>
       <c r="F6">
-        <v>-7.8</v>
+        <v>-1.8</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2014,25 +2065,25 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>1.7</v>
+        <v>-16.899999999999999</v>
       </c>
       <c r="E7">
-        <v>-11.1</v>
+        <v>-25.2</v>
       </c>
       <c r="F7">
-        <v>16.2</v>
+        <v>-7.8</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -2101,54 +2152,54 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>-5.0999999999999996</v>
+        <v>-6.3</v>
       </c>
       <c r="E10">
-        <v>-9.3000000000000007</v>
+        <v>-9.9</v>
       </c>
       <c r="F10">
-        <v>-0.7</v>
+        <v>-2.6</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11">
-        <v>-6.3</v>
+        <v>7.8</v>
       </c>
       <c r="E11">
-        <v>-9.9</v>
+        <v>-6.2</v>
       </c>
       <c r="F11">
-        <v>-2.6</v>
+        <v>23.9</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -2156,31 +2207,31 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12">
-        <v>-7.1</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="E12">
-        <v>-19.100000000000001</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="F12">
-        <v>6.8</v>
+        <v>-0.7</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2188,25 +2239,25 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>7.8</v>
+        <v>-7.1</v>
       </c>
       <c r="E13">
-        <v>-6.2</v>
+        <v>-19.100000000000001</v>
       </c>
       <c r="F13">
-        <v>23.9</v>
+        <v>6.8</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -2275,54 +2326,54 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>-8.8000000000000007</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="E16">
-        <v>-15.4</v>
+        <v>-14.3</v>
       </c>
       <c r="F16">
-        <v>-1.7</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
       </c>
       <c r="D17">
-        <v>-9.6999999999999993</v>
+        <v>20.2</v>
       </c>
       <c r="E17">
-        <v>-14.3</v>
+        <v>-3.6</v>
       </c>
       <c r="F17">
-        <v>-4.9000000000000004</v>
+        <v>49.9</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -2330,31 +2381,31 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
       <c r="D18">
-        <v>5.4</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="E18">
-        <v>-13.2</v>
+        <v>-15.4</v>
       </c>
       <c r="F18">
-        <v>28.2</v>
+        <v>-1.7</v>
       </c>
       <c r="G18" t="s">
         <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2362,25 +2413,25 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>20.2</v>
+        <v>5.4</v>
       </c>
       <c r="E19">
-        <v>-3.6</v>
+        <v>-13.2</v>
       </c>
       <c r="F19">
-        <v>49.9</v>
+        <v>28.2</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -2449,54 +2500,54 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-2.8</v>
       </c>
       <c r="E22">
-        <v>-1.3</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="F22">
-        <v>1.4</v>
+        <v>-1.4</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
       <c r="D23">
-        <v>-2.8</v>
+        <v>2.1</v>
       </c>
       <c r="E23">
-        <v>-4.0999999999999996</v>
+        <v>-6.1</v>
       </c>
       <c r="F23">
-        <v>-1.4</v>
+        <v>10.9</v>
       </c>
       <c r="G23" t="s">
         <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I23" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -2504,31 +2555,31 @@
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
       </c>
       <c r="D24">
-        <v>-7.5</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>-13.6</v>
+        <v>-1.3</v>
       </c>
       <c r="F24">
-        <v>-0.9</v>
+        <v>1.4</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -2536,25 +2587,25 @@
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>2.1</v>
+        <v>-7.5</v>
       </c>
       <c r="E25">
-        <v>-6.1</v>
+        <v>-13.6</v>
       </c>
       <c r="F25">
-        <v>10.9</v>
+        <v>-0.9</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -2623,54 +2674,54 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>0.5</v>
+        <v>-3.2</v>
       </c>
       <c r="E28">
-        <v>-2.7</v>
+        <v>-6.7</v>
       </c>
       <c r="F28">
-        <v>3.7</v>
+        <v>0.4</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
         <v>21</v>
       </c>
       <c r="D29">
-        <v>-3.2</v>
+        <v>17.3</v>
       </c>
       <c r="E29">
-        <v>-6.7</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.4</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -2678,31 +2729,31 @@
         <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
       </c>
       <c r="D30">
-        <v>7.6</v>
+        <v>0.5</v>
       </c>
       <c r="E30">
-        <v>-5.3</v>
+        <v>-2.7</v>
       </c>
       <c r="F30">
-        <v>22.3</v>
+        <v>3.7</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -2710,25 +2761,25 @@
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>17.3</v>
+        <v>7.6</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>-5.3</v>
       </c>
       <c r="F31">
-        <v>36.299999999999997</v>
+        <v>22.3</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -2797,54 +2848,54 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>1.2</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="E34">
-        <v>-2.2000000000000002</v>
+        <v>-6.7</v>
       </c>
       <c r="F34">
-        <v>4.7</v>
+        <v>-1.4</v>
       </c>
       <c r="G34" t="s">
         <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
         <v>21</v>
       </c>
       <c r="D35">
-        <v>-4.0999999999999996</v>
+        <v>30.6</v>
       </c>
       <c r="E35">
-        <v>-6.7</v>
+        <v>14.7</v>
       </c>
       <c r="F35">
-        <v>-1.4</v>
+        <v>48.7</v>
       </c>
       <c r="G35" t="s">
         <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -2852,31 +2903,31 @@
         <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
         <v>18</v>
       </c>
       <c r="D36">
-        <v>15.5</v>
+        <v>1.2</v>
       </c>
       <c r="E36">
-        <v>-3.6</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="F36">
-        <v>38.299999999999997</v>
+        <v>4.7</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -2884,25 +2935,25 @@
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>30.6</v>
+        <v>15.5</v>
       </c>
       <c r="E37">
-        <v>14.7</v>
+        <v>-3.6</v>
       </c>
       <c r="F37">
-        <v>48.7</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="G37" t="s">
         <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -2971,54 +3022,54 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D40">
-        <v>4.0999999999999996</v>
+        <v>-0.9</v>
       </c>
       <c r="E40">
-        <v>0.4</v>
+        <v>-3.7</v>
       </c>
       <c r="F40">
-        <v>7.9</v>
+        <v>2</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
         <v>21</v>
       </c>
       <c r="D41">
-        <v>-0.9</v>
+        <v>21.3</v>
       </c>
       <c r="E41">
-        <v>-3.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>41.4</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="I41" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -3026,31 +3077,31 @@
         <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
       </c>
       <c r="D42">
-        <v>1.1000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E42">
-        <v>-18.399999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="F42">
-        <v>25.3</v>
+        <v>7.9</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -3058,25 +3109,25 @@
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D43">
-        <v>21.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E43">
-        <v>4.0999999999999996</v>
+        <v>-18.399999999999999</v>
       </c>
       <c r="F43">
-        <v>41.4</v>
+        <v>25.3</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -3145,54 +3196,54 @@
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D46">
-        <v>-2.6</v>
+        <v>-7.3</v>
       </c>
       <c r="E46">
-        <v>-4.5999999999999996</v>
+        <v>-9.4</v>
       </c>
       <c r="F46">
-        <v>-0.6</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
       </c>
       <c r="H46" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I46" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
         <v>21</v>
       </c>
       <c r="D47">
-        <v>-7.3</v>
+        <v>9</v>
       </c>
       <c r="E47">
-        <v>-9.4</v>
+        <v>-4.2</v>
       </c>
       <c r="F47">
-        <v>-5.0999999999999996</v>
+        <v>24</v>
       </c>
       <c r="G47" t="s">
         <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I47" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -3200,31 +3251,31 @@
         <v>106</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
       </c>
       <c r="D48">
-        <v>-6.9</v>
+        <v>-2.6</v>
       </c>
       <c r="E48">
-        <v>-15.9</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="F48">
-        <v>3.1</v>
+        <v>-0.6</v>
       </c>
       <c r="G48" t="s">
         <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I48" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>106</v>
       </c>
@@ -3232,28 +3283,28 @@
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D49">
-        <v>9</v>
+        <v>-6.9</v>
       </c>
       <c r="E49">
-        <v>-4.2</v>
+        <v>-15.9</v>
       </c>
       <c r="F49">
-        <v>24</v>
+        <v>3.1</v>
       </c>
       <c r="G49" t="s">
         <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I49" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>119</v>
       </c>
@@ -3282,7 +3333,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>119</v>
       </c>
@@ -3311,7 +3362,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>119</v>
       </c>
@@ -3319,25 +3370,25 @@
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D52">
-        <v>-0.4</v>
+        <v>-6.2</v>
       </c>
       <c r="E52">
-        <v>-4.5</v>
+        <v>-11.1</v>
       </c>
       <c r="F52">
-        <v>3.8</v>
+        <v>-1</v>
       </c>
       <c r="G52" t="s">
         <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I52" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -3345,57 +3396,57 @@
         <v>119</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
         <v>21</v>
       </c>
       <c r="D53">
-        <v>-6.2</v>
+        <v>23.7</v>
       </c>
       <c r="E53">
-        <v>-11.1</v>
+        <v>-15.4</v>
       </c>
       <c r="F53">
-        <v>-1</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="G53" t="s">
         <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>119</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
         <v>18</v>
       </c>
       <c r="D54">
-        <v>36.4</v>
+        <v>-0.4</v>
       </c>
       <c r="E54">
-        <v>12</v>
+        <v>-4.5</v>
       </c>
       <c r="F54">
-        <v>66.099999999999994</v>
+        <v>3.8</v>
       </c>
       <c r="G54" t="s">
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I54" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -3406,34 +3457,37 @@
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D55">
-        <v>23.7</v>
+        <v>36.4</v>
       </c>
       <c r="E55">
-        <v>-15.4</v>
+        <v>12</v>
       </c>
       <c r="F55">
-        <v>81.099999999999994</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="G55" t="s">
         <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I55" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C55" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
+  <autoFilter ref="A1:I55" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
       <filters>
-        <filter val="Hospital-associated"/>
+        <filter val="Acinetobacter Sp."/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A50:I55">
+      <sortCondition descending="1" ref="C1:C55"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3442,18 +3496,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3486,7 +3537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3515,7 +3566,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3544,7 +3595,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3552,25 +3603,25 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>0.3</v>
+        <v>-3.2</v>
       </c>
       <c r="E4">
-        <v>-0.9</v>
+        <v>-4.3</v>
       </c>
       <c r="F4">
-        <v>1.5</v>
+        <v>-2.1</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I4" t="s">
-        <v>207</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3578,57 +3629,57 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
       <c r="D5">
-        <v>-3.2</v>
+        <v>11.5</v>
       </c>
       <c r="E5">
-        <v>-4.3</v>
+        <v>5.6</v>
       </c>
       <c r="F5">
-        <v>-2.1</v>
+        <v>17.8</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="I5" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6">
-        <v>-10.3</v>
+        <v>0.3</v>
       </c>
       <c r="E6">
-        <v>-14.2</v>
+        <v>-0.9</v>
       </c>
       <c r="F6">
-        <v>-6.3</v>
+        <v>1.5</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="I6" t="s">
-        <v>480</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3639,34 +3690,32 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>11.5</v>
+        <v>-10.3</v>
       </c>
       <c r="E7">
-        <v>5.6</v>
+        <v>-14.2</v>
       </c>
       <c r="F7">
-        <v>17.8</v>
+        <v>-6.3</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C7" xr:uid="{00000000-0001-0000-0900-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Hospital-associated"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:I7" xr:uid="{00000000-0001-0000-0900-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I7">
+      <sortCondition descending="1" ref="C1:C7"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3679,14 +3728,13 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23:I55"/>
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3784,54 +3832,54 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>0.4</v>
+        <v>-2.7</v>
       </c>
       <c r="E4">
-        <v>-1.7</v>
+        <v>-4.7</v>
       </c>
       <c r="F4">
-        <v>2.4</v>
+        <v>-0.6</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
       <c r="D5">
-        <v>-2.7</v>
+        <v>11.7</v>
       </c>
       <c r="E5">
-        <v>-4.7</v>
+        <v>-1.2</v>
       </c>
       <c r="F5">
-        <v>-0.6</v>
+        <v>26.1</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -3839,31 +3887,31 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
       <c r="D6">
-        <v>-15.1</v>
+        <v>0.4</v>
       </c>
       <c r="E6">
-        <v>-21.3</v>
+        <v>-1.7</v>
       </c>
       <c r="F6">
-        <v>-8.3000000000000007</v>
+        <v>2.4</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3871,25 +3919,25 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>11.7</v>
+        <v>-15.1</v>
       </c>
       <c r="E7">
-        <v>-1.2</v>
+        <v>-21.3</v>
       </c>
       <c r="F7">
-        <v>26.1</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -3958,54 +4006,54 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="E10">
-        <v>-1.8</v>
+        <v>-2.9</v>
       </c>
       <c r="F10">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>18.7</v>
       </c>
       <c r="E11">
-        <v>-2.9</v>
+        <v>4.3</v>
       </c>
       <c r="F11">
-        <v>3.1</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -4013,31 +4061,31 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
       <c r="D12">
-        <v>-4.4000000000000004</v>
+        <v>1.4</v>
       </c>
       <c r="E12">
-        <v>-14.1</v>
+        <v>-1.8</v>
       </c>
       <c r="F12">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -4045,25 +4093,25 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>18.7</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="E13">
-        <v>4.3</v>
+        <v>-14.1</v>
       </c>
       <c r="F13">
-        <v>35</v>
+        <v>6.4</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -4132,54 +4180,54 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="E16">
-        <v>-1.8</v>
+        <v>-1.2</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>7.1</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
       </c>
       <c r="H16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
       </c>
       <c r="D17">
-        <v>2.9</v>
+        <v>57</v>
       </c>
       <c r="E17">
-        <v>-1.2</v>
+        <v>29.5</v>
       </c>
       <c r="F17">
-        <v>7.1</v>
+        <v>90.3</v>
       </c>
       <c r="G17" t="s">
         <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -4187,31 +4235,31 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
       <c r="D18">
-        <v>13.1</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>-15.8</v>
+        <v>-1.8</v>
       </c>
       <c r="F18">
-        <v>51.9</v>
+        <v>6</v>
       </c>
       <c r="G18" t="s">
         <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -4219,25 +4267,25 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>57</v>
+        <v>13.1</v>
       </c>
       <c r="E19">
-        <v>29.5</v>
+        <v>-15.8</v>
       </c>
       <c r="F19">
-        <v>90.3</v>
+        <v>51.9</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -4306,54 +4354,54 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>-0.4</v>
+        <v>-1.5</v>
       </c>
       <c r="E22">
-        <v>-1.4</v>
+        <v>-2.7</v>
       </c>
       <c r="F22">
-        <v>0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
       <c r="D23">
+        <v>3.8</v>
+      </c>
+      <c r="E23">
         <v>-1.5</v>
       </c>
-      <c r="E23">
-        <v>-2.7</v>
-      </c>
       <c r="F23">
-        <v>-0.3</v>
+        <v>9.4</v>
       </c>
       <c r="G23" t="s">
         <v>12</v>
       </c>
       <c r="H23" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I23" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -4361,31 +4409,31 @@
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
       </c>
       <c r="D24">
-        <v>-6.7</v>
+        <v>-0.4</v>
       </c>
       <c r="E24">
-        <v>-10.7</v>
+        <v>-1.4</v>
       </c>
       <c r="F24">
-        <v>-2.4</v>
+        <v>0.6</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -4393,25 +4441,25 @@
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>3.8</v>
+        <v>-6.7</v>
       </c>
       <c r="E25">
-        <v>-1.5</v>
+        <v>-10.7</v>
       </c>
       <c r="F25">
-        <v>9.4</v>
+        <v>-2.4</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
       </c>
       <c r="H25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -4480,54 +4528,54 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="E28">
-        <v>0.1</v>
+        <v>-2.8</v>
       </c>
       <c r="F28">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
         <v>21</v>
       </c>
       <c r="D29">
-        <v>-1.4</v>
+        <v>-0.8</v>
       </c>
       <c r="E29">
-        <v>-2.8</v>
+        <v>-6.6</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
       </c>
       <c r="H29" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I29" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -4535,31 +4583,31 @@
         <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
       </c>
       <c r="D30">
-        <v>-7.2</v>
+        <v>1.3</v>
       </c>
       <c r="E30">
-        <v>-11.5</v>
+        <v>0.1</v>
       </c>
       <c r="F30">
-        <v>-2.6</v>
+        <v>2.6</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I30" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -4567,25 +4615,25 @@
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>-0.8</v>
+        <v>-7.2</v>
       </c>
       <c r="E31">
-        <v>-6.6</v>
+        <v>-11.5</v>
       </c>
       <c r="F31">
-        <v>5.3</v>
+        <v>-2.6</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
       </c>
       <c r="H31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I31" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -4654,54 +4702,54 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>1.4</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="E34">
-        <v>-0.5</v>
+        <v>-3.9</v>
       </c>
       <c r="F34">
-        <v>3.3</v>
+        <v>-0.6</v>
       </c>
       <c r="G34" t="s">
         <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I34" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
         <v>21</v>
       </c>
       <c r="D35">
-        <v>-2.2000000000000002</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E35">
-        <v>-3.9</v>
+        <v>-3.2</v>
       </c>
       <c r="F35">
-        <v>-0.6</v>
+        <v>13.7</v>
       </c>
       <c r="G35" t="s">
         <v>12</v>
       </c>
       <c r="H35" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I35" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -4709,31 +4757,31 @@
         <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
         <v>18</v>
       </c>
       <c r="D36">
-        <v>-1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E36">
-        <v>-8.1999999999999993</v>
+        <v>-0.5</v>
       </c>
       <c r="F36">
-        <v>6.4</v>
+        <v>3.3</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -4741,25 +4789,25 @@
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>4.9000000000000004</v>
+        <v>-1.2</v>
       </c>
       <c r="E37">
-        <v>-3.2</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="F37">
-        <v>13.7</v>
+        <v>6.4</v>
       </c>
       <c r="G37" t="s">
         <v>12</v>
       </c>
       <c r="H37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I37" t="s">
-        <v>193</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -4828,54 +4876,54 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D40">
-        <v>2.4</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="E40">
-        <v>0.6</v>
+        <v>-2.9</v>
       </c>
       <c r="F40">
-        <v>4.2</v>
+        <v>0.8</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I40" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
         <v>21</v>
       </c>
       <c r="D41">
-        <v>-1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="E41">
-        <v>-2.9</v>
+        <v>-9.1</v>
       </c>
       <c r="F41">
-        <v>0.8</v>
+        <v>13.4</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I41" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -4883,31 +4931,31 @@
         <v>93</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="E42">
-        <v>-5.2</v>
+        <v>0.6</v>
       </c>
       <c r="F42">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
       </c>
       <c r="H42" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I42" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -4915,25 +4963,25 @@
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D43">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E43">
-        <v>-9.1</v>
+        <v>-5.2</v>
       </c>
       <c r="F43">
-        <v>13.4</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -5002,54 +5050,54 @@
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D46">
-        <v>0.3</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="E46">
-        <v>-1.2</v>
+        <v>-3.8</v>
       </c>
       <c r="F46">
-        <v>1.9</v>
+        <v>-0.7</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
       </c>
       <c r="H46" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I46" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
         <v>21</v>
       </c>
       <c r="D47">
-        <v>-2.2999999999999998</v>
+        <v>8.9</v>
       </c>
       <c r="E47">
-        <v>-3.8</v>
+        <v>1.9</v>
       </c>
       <c r="F47">
-        <v>-0.7</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="G47" t="s">
         <v>12</v>
       </c>
       <c r="H47" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="I47" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
@@ -5057,31 +5105,31 @@
         <v>106</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
       </c>
       <c r="D48">
-        <v>-7.6</v>
+        <v>0.3</v>
       </c>
       <c r="E48">
-        <v>-12.7</v>
+        <v>-1.2</v>
       </c>
       <c r="F48">
-        <v>-2.2000000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="G48" t="s">
         <v>12</v>
       </c>
       <c r="H48" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I48" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>106</v>
       </c>
@@ -5089,28 +5137,28 @@
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D49">
-        <v>8.9</v>
+        <v>-7.6</v>
       </c>
       <c r="E49">
-        <v>1.9</v>
+        <v>-12.7</v>
       </c>
       <c r="F49">
-        <v>16.399999999999999</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="G49" t="s">
         <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I49" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>119</v>
       </c>
@@ -5139,7 +5187,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>119</v>
       </c>
@@ -5168,7 +5216,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>119</v>
       </c>
@@ -5176,25 +5224,25 @@
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="E52">
-        <v>-0.1</v>
+        <v>-1.3</v>
       </c>
       <c r="F52">
-        <v>6.2</v>
+        <v>3.6</v>
       </c>
       <c r="G52" t="s">
         <v>12</v>
       </c>
       <c r="H52" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I52" t="s">
-        <v>202</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -5202,57 +5250,57 @@
         <v>119</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C53" t="s">
         <v>21</v>
       </c>
       <c r="D53">
-        <v>1.2</v>
+        <v>-5.9</v>
       </c>
       <c r="E53">
-        <v>-1.3</v>
+        <v>-18.2</v>
       </c>
       <c r="F53">
-        <v>3.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G53" t="s">
         <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>119</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
         <v>18</v>
       </c>
       <c r="D54">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E54">
-        <v>-10</v>
+        <v>-0.1</v>
       </c>
       <c r="F54">
-        <v>16.7</v>
+        <v>6.2</v>
       </c>
       <c r="G54" t="s">
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I54" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -5263,34 +5311,37 @@
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D55">
-        <v>-5.9</v>
+        <v>2.5</v>
       </c>
       <c r="E55">
-        <v>-18.2</v>
+        <v>-10</v>
       </c>
       <c r="F55">
-        <v>8.1999999999999993</v>
+        <v>16.7</v>
       </c>
       <c r="G55" t="s">
         <v>12</v>
       </c>
       <c r="H55" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I55" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C55" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="1">
+  <autoFilter ref="A1:I55" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="0">
       <filters>
-        <filter val="Hospital-associated"/>
+        <filter val="Acinetobacter Sp."/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A50:I55">
+      <sortCondition descending="1" ref="C1:C55"/>
+    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5299,19 +5350,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -5342,7 +5385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -5371,7 +5414,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -5429,7 +5472,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -5487,7 +5530,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -5516,7 +5559,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -5545,7 +5588,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -5603,7 +5646,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -5661,7 +5704,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -5690,7 +5733,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -5719,7 +5762,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -5777,7 +5820,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -5835,7 +5878,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -5864,7 +5907,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -5893,7 +5936,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -5951,7 +5994,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -6009,7 +6052,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -6038,7 +6081,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -6067,7 +6110,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -6125,7 +6168,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -6183,7 +6226,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>106</v>
       </c>
@@ -6212,7 +6255,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -6241,7 +6284,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>119</v>
       </c>
@@ -6299,7 +6342,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>119</v>
       </c>
@@ -6357,7 +6400,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -6387,13 +6430,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C37" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Community-onset"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -6401,19 +6437,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -6444,7 +6472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -6473,7 +6501,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -6531,7 +6559,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -6589,7 +6617,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -6618,7 +6646,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -6647,7 +6675,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -6705,7 +6733,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -6763,7 +6791,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -6792,7 +6820,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -6821,7 +6849,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -6879,7 +6907,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -6937,7 +6965,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -6966,7 +6994,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -6995,7 +7023,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -7053,7 +7081,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -7111,7 +7139,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -7140,7 +7168,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -7169,7 +7197,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -7227,7 +7255,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -7285,7 +7313,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>106</v>
       </c>
@@ -7314,7 +7342,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -7343,7 +7371,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>119</v>
       </c>
@@ -7401,7 +7429,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>119</v>
       </c>
@@ -7459,7 +7487,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -7489,13 +7517,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C37" xr:uid="{00000000-0001-0000-0300-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Community-onset"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -7503,16 +7524,2843 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>1.5</v>
+      </c>
+      <c r="F2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>339</v>
+      </c>
+      <c r="I2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>4.7</v>
+      </c>
+      <c r="E3">
+        <v>-14.9</v>
+      </c>
+      <c r="F3">
+        <v>28.9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>6.8</v>
+      </c>
+      <c r="E4">
+        <v>1.9</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>343</v>
+      </c>
+      <c r="I4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>3.3</v>
+      </c>
+      <c r="E5">
+        <v>-1.3</v>
+      </c>
+      <c r="F5">
+        <v>8.1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>345</v>
+      </c>
+      <c r="I5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>-3.5</v>
+      </c>
+      <c r="E6">
+        <v>-31.9</v>
+      </c>
+      <c r="F6">
+        <v>36.9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>347</v>
+      </c>
+      <c r="I6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>13.6</v>
+      </c>
+      <c r="E7">
+        <v>-11.3</v>
+      </c>
+      <c r="F7">
+        <v>45.5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>349</v>
+      </c>
+      <c r="I7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>-0.3</v>
+      </c>
+      <c r="E8">
+        <v>-4.3</v>
+      </c>
+      <c r="F8">
+        <v>3.9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>351</v>
+      </c>
+      <c r="I8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>-6.1</v>
+      </c>
+      <c r="E9">
+        <v>-20.6</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>353</v>
+      </c>
+      <c r="I9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>3.6</v>
+      </c>
+      <c r="E10">
+        <v>-1.5</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>355</v>
+      </c>
+      <c r="I10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="E11">
+        <v>-7.4</v>
+      </c>
+      <c r="F11">
+        <v>-0.7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>357</v>
+      </c>
+      <c r="I11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>-5.7</v>
+      </c>
+      <c r="E12">
+        <v>-22.1</v>
+      </c>
+      <c r="F12">
+        <v>14.1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>358</v>
+      </c>
+      <c r="I12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>-6.5</v>
+      </c>
+      <c r="E13">
+        <v>-22.5</v>
+      </c>
+      <c r="F13">
+        <v>12.9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>360</v>
+      </c>
+      <c r="I13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>1.9</v>
+      </c>
+      <c r="F14">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>362</v>
+      </c>
+      <c r="I14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>-1.7</v>
+      </c>
+      <c r="F15">
+        <v>25.2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>363</v>
+      </c>
+      <c r="I15" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>4.3</v>
+      </c>
+      <c r="E16">
+        <v>-0.3</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>365</v>
+      </c>
+      <c r="I16" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>5.8</v>
+      </c>
+      <c r="E17">
+        <v>2.9</v>
+      </c>
+      <c r="F17">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>367</v>
+      </c>
+      <c r="I17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>13.6</v>
+      </c>
+      <c r="E18">
+        <v>-7.7</v>
+      </c>
+      <c r="F18">
+        <v>39.6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>369</v>
+      </c>
+      <c r="I18" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>8.4</v>
+      </c>
+      <c r="E19">
+        <v>-11</v>
+      </c>
+      <c r="F19">
+        <v>32.1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>370</v>
+      </c>
+      <c r="I19" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="E20">
+        <v>-3.6</v>
+      </c>
+      <c r="F20">
+        <v>1.5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>372</v>
+      </c>
+      <c r="I20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>7.1</v>
+      </c>
+      <c r="E21">
+        <v>-4.7</v>
+      </c>
+      <c r="F21">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>373</v>
+      </c>
+      <c r="I21" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>1.7</v>
+      </c>
+      <c r="E22">
+        <v>-1.3</v>
+      </c>
+      <c r="F22">
+        <v>4.7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>375</v>
+      </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>-3.7</v>
+      </c>
+      <c r="E23">
+        <v>-6.4</v>
+      </c>
+      <c r="F23">
+        <v>-1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>376</v>
+      </c>
+      <c r="I23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="E24">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="F24">
+        <v>13.8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>378</v>
+      </c>
+      <c r="I24" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F25">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>380</v>
+      </c>
+      <c r="I25" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>-2.7</v>
+      </c>
+      <c r="E26">
+        <v>-6.1</v>
+      </c>
+      <c r="F26">
+        <v>0.8</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>382</v>
+      </c>
+      <c r="I26" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>20.3</v>
+      </c>
+      <c r="E27">
+        <v>-12.3</v>
+      </c>
+      <c r="F27">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>384</v>
+      </c>
+      <c r="I27" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>-0.1</v>
+      </c>
+      <c r="E28">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="F28">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>386</v>
+      </c>
+      <c r="I28" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29">
+        <v>-5.3</v>
+      </c>
+      <c r="E29">
+        <v>-9.4</v>
+      </c>
+      <c r="F29">
+        <v>-0.9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>387</v>
+      </c>
+      <c r="I29" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>22.2</v>
+      </c>
+      <c r="E30">
+        <v>-10.1</v>
+      </c>
+      <c r="F30">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>389</v>
+      </c>
+      <c r="I30" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E31">
+        <v>-25.4</v>
+      </c>
+      <c r="F31">
+        <v>87.9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>391</v>
+      </c>
+      <c r="I31" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>4.5</v>
+      </c>
+      <c r="E32">
+        <v>-0.4</v>
+      </c>
+      <c r="F32">
+        <v>9.6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>492</v>
+      </c>
+      <c r="I32" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>1.3</v>
+      </c>
+      <c r="E33">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="F33">
+        <v>23.2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>494</v>
+      </c>
+      <c r="I33" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34">
+        <v>3.8</v>
+      </c>
+      <c r="E34">
+        <v>-2.9</v>
+      </c>
+      <c r="F34">
+        <v>10.9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>495</v>
+      </c>
+      <c r="I34" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E35">
+        <v>-24.6</v>
+      </c>
+      <c r="F35">
+        <v>44.4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" t="s">
+        <v>496</v>
+      </c>
+      <c r="I35" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <v>5.3</v>
+      </c>
+      <c r="E36">
+        <v>-0.6</v>
+      </c>
+      <c r="F36">
+        <v>11.5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>497</v>
+      </c>
+      <c r="I36" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37">
+        <v>-1.6</v>
+      </c>
+      <c r="E37">
+        <v>-25.1</v>
+      </c>
+      <c r="F37">
+        <v>29.2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" t="s">
+        <v>499</v>
+      </c>
+      <c r="I37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>-0.9</v>
+      </c>
+      <c r="E2">
+        <v>-2.6</v>
+      </c>
+      <c r="F2">
+        <v>0.8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>393</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>-6.7</v>
+      </c>
+      <c r="F3">
+        <v>5.2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>394</v>
+      </c>
+      <c r="I3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>0.7</v>
+      </c>
+      <c r="E4">
+        <v>-1.2</v>
+      </c>
+      <c r="F4">
+        <v>2.6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>395</v>
+      </c>
+      <c r="I4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>-2.4</v>
+      </c>
+      <c r="E5">
+        <v>-4.3</v>
+      </c>
+      <c r="F5">
+        <v>-0.5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="E6">
+        <v>-10.1</v>
+      </c>
+      <c r="F6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>398</v>
+      </c>
+      <c r="I6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E7">
+        <v>-5.3</v>
+      </c>
+      <c r="F7">
+        <v>10.4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>400</v>
+      </c>
+      <c r="I7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>-1.8</v>
+      </c>
+      <c r="E8">
+        <v>-3.7</v>
+      </c>
+      <c r="F8">
+        <v>0.2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>401</v>
+      </c>
+      <c r="I8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>-0.9</v>
+      </c>
+      <c r="F9">
+        <v>15.5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>402</v>
+      </c>
+      <c r="I9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>0.6</v>
+      </c>
+      <c r="E10">
+        <v>-1.7</v>
+      </c>
+      <c r="F10">
+        <v>2.9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>403</v>
+      </c>
+      <c r="I10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>-4</v>
+      </c>
+      <c r="E11">
+        <v>-6.1</v>
+      </c>
+      <c r="F11">
+        <v>-1.9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>405</v>
+      </c>
+      <c r="I11" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E12">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="F12">
+        <v>14.2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>407</v>
+      </c>
+      <c r="I12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E13">
+        <v>-0.8</v>
+      </c>
+      <c r="F13">
+        <v>21.3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>409</v>
+      </c>
+      <c r="I13" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>-2.6</v>
+      </c>
+      <c r="F14">
+        <v>0.8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>411</v>
+      </c>
+      <c r="I14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>10.6</v>
+      </c>
+      <c r="E15">
+        <v>1.8</v>
+      </c>
+      <c r="F15">
+        <v>20.3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>412</v>
+      </c>
+      <c r="I15" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>0.4</v>
+      </c>
+      <c r="E16">
+        <v>-1.7</v>
+      </c>
+      <c r="F16">
+        <v>2.5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>414</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="E17">
+        <v>-4.5</v>
+      </c>
+      <c r="F17">
+        <v>-0.1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>415</v>
+      </c>
+      <c r="I17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>7.8</v>
+      </c>
+      <c r="E18">
+        <v>-2.7</v>
+      </c>
+      <c r="F18">
+        <v>19.5</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>416</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>13.5</v>
+      </c>
+      <c r="E19">
+        <v>0.2</v>
+      </c>
+      <c r="F19">
+        <v>28.6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>417</v>
+      </c>
+      <c r="I19" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="E20">
+        <v>-3.8</v>
+      </c>
+      <c r="F20">
+        <v>-0.9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>419</v>
+      </c>
+      <c r="I20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>-6.2</v>
+      </c>
+      <c r="F21">
+        <v>6.5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>420</v>
+      </c>
+      <c r="I21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>-0.9</v>
+      </c>
+      <c r="E22">
+        <v>-2.6</v>
+      </c>
+      <c r="F22">
+        <v>0.9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>421</v>
+      </c>
+      <c r="I22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>-3.8</v>
+      </c>
+      <c r="E23">
+        <v>-5.4</v>
+      </c>
+      <c r="F23">
+        <v>-2.1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>422</v>
+      </c>
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>-7.8</v>
+      </c>
+      <c r="E24">
+        <v>-14.7</v>
+      </c>
+      <c r="F24">
+        <v>-0.5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>423</v>
+      </c>
+      <c r="I24" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>8.4</v>
+      </c>
+      <c r="E25">
+        <v>0.4</v>
+      </c>
+      <c r="F25">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>425</v>
+      </c>
+      <c r="I25" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>-2.6</v>
+      </c>
+      <c r="E26">
+        <v>-5.2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>483</v>
+      </c>
+      <c r="I26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>8.4</v>
+      </c>
+      <c r="E27">
+        <v>-4</v>
+      </c>
+      <c r="F27">
+        <v>22.5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>484</v>
+      </c>
+      <c r="I27" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="E28">
+        <v>-5.7</v>
+      </c>
+      <c r="F28">
+        <v>1.4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>485</v>
+      </c>
+      <c r="I28" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>-10</v>
+      </c>
+      <c r="F29">
+        <v>22.5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>486</v>
+      </c>
+      <c r="I29" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30">
+        <v>-3</v>
+      </c>
+      <c r="E30">
+        <v>-6.1</v>
+      </c>
+      <c r="F30">
+        <v>0.2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>488</v>
+      </c>
+      <c r="I30" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>-4.2</v>
+      </c>
+      <c r="F31">
+        <v>30.9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>490</v>
+      </c>
+      <c r="I31" t="s">
+        <v>491</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>-1.3</v>
+      </c>
+      <c r="E2">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="F2">
+        <v>2.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>427</v>
+      </c>
+      <c r="I2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>-4</v>
+      </c>
+      <c r="E3">
+        <v>-18.7</v>
+      </c>
+      <c r="F3">
+        <v>13.3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="E4">
+        <v>-6.3</v>
+      </c>
+      <c r="F4">
+        <v>2.1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>431</v>
+      </c>
+      <c r="I4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>-1.9</v>
+      </c>
+      <c r="E5">
+        <v>-19.8</v>
+      </c>
+      <c r="F5">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>434</v>
+      </c>
+      <c r="I5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>-0.3</v>
+      </c>
+      <c r="E6">
+        <v>-4</v>
+      </c>
+      <c r="F6">
+        <v>3.5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>430</v>
+      </c>
+      <c r="I6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>-6.1</v>
+      </c>
+      <c r="E7">
+        <v>-21.8</v>
+      </c>
+      <c r="F7">
+        <v>12.8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>433</v>
+      </c>
+      <c r="I7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>-9.9</v>
+      </c>
+      <c r="E8">
+        <v>-12.8</v>
+      </c>
+      <c r="F8">
+        <v>-6.9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>436</v>
+      </c>
+      <c r="I8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>26.3</v>
+      </c>
+      <c r="E9">
+        <v>10.8</v>
+      </c>
+      <c r="F9">
+        <v>43.9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>438</v>
+      </c>
+      <c r="I9" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>-9.4</v>
+      </c>
+      <c r="E10">
+        <v>-12.2</v>
+      </c>
+      <c r="F10">
+        <v>-6.5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>442</v>
+      </c>
+      <c r="I10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>34.4</v>
+      </c>
+      <c r="E11">
+        <v>12.6</v>
+      </c>
+      <c r="F11">
+        <v>60.4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>445</v>
+      </c>
+      <c r="I11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>-10.4</v>
+      </c>
+      <c r="E12">
+        <v>-14.3</v>
+      </c>
+      <c r="F12">
+        <v>-6.3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>440</v>
+      </c>
+      <c r="I12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>18.7</v>
+      </c>
+      <c r="E13">
+        <v>1.3</v>
+      </c>
+      <c r="F13">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>444</v>
+      </c>
+      <c r="I13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I13" xr:uid="{00000000-0001-0000-0600-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I13">
+      <sortCondition ref="A1:A13"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+      <c r="E2">
+        <v>-1.7</v>
+      </c>
+      <c r="F2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1.5</v>
+      </c>
+      <c r="E3">
+        <v>-4</v>
+      </c>
+      <c r="F3">
+        <v>7.3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>449</v>
+      </c>
+      <c r="I3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>-0.9</v>
+      </c>
+      <c r="E4">
+        <v>-2.9</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>451</v>
+      </c>
+      <c r="I4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>7.1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>14.8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>454</v>
+      </c>
+      <c r="I5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>1.4</v>
+      </c>
+      <c r="E6">
+        <v>-0.8</v>
+      </c>
+      <c r="F6">
+        <v>3.7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>450</v>
+      </c>
+      <c r="I6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>-3.9</v>
+      </c>
+      <c r="E7">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="F7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>452</v>
+      </c>
+      <c r="I7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>-1.3</v>
+      </c>
+      <c r="E8">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="F8">
+        <v>1.7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>455</v>
+      </c>
+      <c r="I8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>13.7</v>
+      </c>
+      <c r="F9">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>456</v>
+      </c>
+      <c r="I9" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>-1.9</v>
+      </c>
+      <c r="E10">
+        <v>-5.5</v>
+      </c>
+      <c r="F10">
+        <v>1.8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>460</v>
+      </c>
+      <c r="I10" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>30.5</v>
+      </c>
+      <c r="E11">
+        <v>14.1</v>
+      </c>
+      <c r="F11">
+        <v>49.3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>463</v>
+      </c>
+      <c r="I11" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>-0.6</v>
+      </c>
+      <c r="E12">
+        <v>-3.3</v>
+      </c>
+      <c r="F12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>458</v>
+      </c>
+      <c r="I12" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>21.6</v>
+      </c>
+      <c r="E13">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F13">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>461</v>
+      </c>
+      <c r="I13" t="s">
+        <v>462</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I13" xr:uid="{00000000-0001-0000-0700-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I13">
+      <sortCondition ref="A1:A13"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
@@ -7547,9 +10395,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -7558,27 +10406,27 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>-5.5</v>
       </c>
       <c r="E2">
-        <v>1.5</v>
+        <v>-6.7</v>
       </c>
       <c r="F2">
-        <v>8.6999999999999993</v>
+        <v>-4.3</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>339</v>
+        <v>465</v>
       </c>
       <c r="I2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -7587,3022 +10435,6 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>4.7</v>
-      </c>
-      <c r="E3">
-        <v>-14.9</v>
-      </c>
-      <c r="F3">
-        <v>28.9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>341</v>
-      </c>
-      <c r="I3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>6.8</v>
-      </c>
-      <c r="E4">
-        <v>1.9</v>
-      </c>
-      <c r="F4">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>343</v>
-      </c>
-      <c r="I4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>3.3</v>
-      </c>
-      <c r="E5">
-        <v>-1.3</v>
-      </c>
-      <c r="F5">
-        <v>8.1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>345</v>
-      </c>
-      <c r="I5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>-3.5</v>
-      </c>
-      <c r="E6">
-        <v>-31.9</v>
-      </c>
-      <c r="F6">
-        <v>36.9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>347</v>
-      </c>
-      <c r="I6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>13.6</v>
-      </c>
-      <c r="E7">
-        <v>-11.3</v>
-      </c>
-      <c r="F7">
-        <v>45.5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>349</v>
-      </c>
-      <c r="I7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>-0.3</v>
-      </c>
-      <c r="E8">
-        <v>-4.3</v>
-      </c>
-      <c r="F8">
-        <v>3.9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>351</v>
-      </c>
-      <c r="I8" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>-6.1</v>
-      </c>
-      <c r="E9">
-        <v>-20.6</v>
-      </c>
-      <c r="F9">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>353</v>
-      </c>
-      <c r="I9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>3.6</v>
-      </c>
-      <c r="E10">
-        <v>-1.5</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>355</v>
-      </c>
-      <c r="I10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>-4.0999999999999996</v>
-      </c>
-      <c r="E11">
-        <v>-7.4</v>
-      </c>
-      <c r="F11">
-        <v>-0.7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>357</v>
-      </c>
-      <c r="I11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12">
-        <v>-5.7</v>
-      </c>
-      <c r="E12">
-        <v>-22.1</v>
-      </c>
-      <c r="F12">
-        <v>14.1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>358</v>
-      </c>
-      <c r="I12" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13">
-        <v>-6.5</v>
-      </c>
-      <c r="E13">
-        <v>-22.5</v>
-      </c>
-      <c r="F13">
-        <v>12.9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>360</v>
-      </c>
-      <c r="I13" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>1.9</v>
-      </c>
-      <c r="F14">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>362</v>
-      </c>
-      <c r="I14" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>11</v>
-      </c>
-      <c r="E15">
-        <v>-1.7</v>
-      </c>
-      <c r="F15">
-        <v>25.2</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" t="s">
-        <v>363</v>
-      </c>
-      <c r="I15" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16">
-        <v>4.3</v>
-      </c>
-      <c r="E16">
-        <v>-0.3</v>
-      </c>
-      <c r="F16">
-        <v>9</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
-        <v>365</v>
-      </c>
-      <c r="I16" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17">
-        <v>5.8</v>
-      </c>
-      <c r="E17">
-        <v>2.9</v>
-      </c>
-      <c r="F17">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" t="s">
-        <v>367</v>
-      </c>
-      <c r="I17" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>13.6</v>
-      </c>
-      <c r="E18">
-        <v>-7.7</v>
-      </c>
-      <c r="F18">
-        <v>39.6</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>369</v>
-      </c>
-      <c r="I18" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19">
-        <v>8.4</v>
-      </c>
-      <c r="E19">
-        <v>-11</v>
-      </c>
-      <c r="F19">
-        <v>32.1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>370</v>
-      </c>
-      <c r="I19" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="E26">
-        <v>-3.6</v>
-      </c>
-      <c r="F26">
-        <v>1.5</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" t="s">
-        <v>372</v>
-      </c>
-      <c r="I26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27">
-        <v>7.1</v>
-      </c>
-      <c r="E27">
-        <v>-4.7</v>
-      </c>
-      <c r="F27">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" t="s">
-        <v>373</v>
-      </c>
-      <c r="I27" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28">
-        <v>1.7</v>
-      </c>
-      <c r="E28">
-        <v>-1.3</v>
-      </c>
-      <c r="F28">
-        <v>4.7</v>
-      </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" t="s">
-        <v>375</v>
-      </c>
-      <c r="I28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29">
-        <v>-3.7</v>
-      </c>
-      <c r="E29">
-        <v>-6.4</v>
-      </c>
-      <c r="F29">
-        <v>-1</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" t="s">
-        <v>376</v>
-      </c>
-      <c r="I29" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="E30">
-        <v>-16.100000000000001</v>
-      </c>
-      <c r="F30">
-        <v>13.8</v>
-      </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" t="s">
-        <v>378</v>
-      </c>
-      <c r="I30" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="E31">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F31">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" t="s">
-        <v>380</v>
-      </c>
-      <c r="I31" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32">
-        <v>-2.7</v>
-      </c>
-      <c r="E32">
-        <v>-6.1</v>
-      </c>
-      <c r="F32">
-        <v>0.8</v>
-      </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" t="s">
-        <v>382</v>
-      </c>
-      <c r="I32" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33">
-        <v>20.3</v>
-      </c>
-      <c r="E33">
-        <v>-12.3</v>
-      </c>
-      <c r="F33">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" t="s">
-        <v>384</v>
-      </c>
-      <c r="I33" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34">
-        <v>-0.1</v>
-      </c>
-      <c r="E34">
-        <v>-4.4000000000000004</v>
-      </c>
-      <c r="F34">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" t="s">
-        <v>386</v>
-      </c>
-      <c r="I34" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35">
-        <v>-5.3</v>
-      </c>
-      <c r="E35">
-        <v>-9.4</v>
-      </c>
-      <c r="F35">
-        <v>-0.9</v>
-      </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" t="s">
-        <v>387</v>
-      </c>
-      <c r="I35" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36">
-        <v>22.2</v>
-      </c>
-      <c r="E36">
-        <v>-10.1</v>
-      </c>
-      <c r="F36">
-        <v>66.099999999999994</v>
-      </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" t="s">
-        <v>389</v>
-      </c>
-      <c r="I36" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="E37">
-        <v>-25.4</v>
-      </c>
-      <c r="F37">
-        <v>87.9</v>
-      </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" t="s">
-        <v>391</v>
-      </c>
-      <c r="I37" t="s">
-        <v>392</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="B1:C37" xr:uid="{00000000-0001-0000-0400-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Hospital-associated"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>-0.9</v>
-      </c>
-      <c r="E8">
-        <v>-2.6</v>
-      </c>
-      <c r="F8">
-        <v>0.8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>393</v>
-      </c>
-      <c r="I8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>-1</v>
-      </c>
-      <c r="E9">
-        <v>-6.7</v>
-      </c>
-      <c r="F9">
-        <v>5.2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>394</v>
-      </c>
-      <c r="I9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>0.7</v>
-      </c>
-      <c r="E10">
-        <v>-1.2</v>
-      </c>
-      <c r="F10">
-        <v>2.6</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>395</v>
-      </c>
-      <c r="I10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>-2.4</v>
-      </c>
-      <c r="E11">
-        <v>-4.3</v>
-      </c>
-      <c r="F11">
-        <v>-0.5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>396</v>
-      </c>
-      <c r="I11" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12">
-        <v>-4.0999999999999996</v>
-      </c>
-      <c r="E12">
-        <v>-10.1</v>
-      </c>
-      <c r="F12">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>398</v>
-      </c>
-      <c r="I12" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E13">
-        <v>-5.3</v>
-      </c>
-      <c r="F13">
-        <v>10.4</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>400</v>
-      </c>
-      <c r="I13" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>-1.8</v>
-      </c>
-      <c r="E14">
-        <v>-3.7</v>
-      </c>
-      <c r="F14">
-        <v>0.2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>401</v>
-      </c>
-      <c r="I14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <v>-0.9</v>
-      </c>
-      <c r="F15">
-        <v>15.5</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" t="s">
-        <v>402</v>
-      </c>
-      <c r="I15" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16">
-        <v>0.6</v>
-      </c>
-      <c r="E16">
-        <v>-1.7</v>
-      </c>
-      <c r="F16">
-        <v>2.9</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
-        <v>403</v>
-      </c>
-      <c r="I16" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17">
-        <v>-4</v>
-      </c>
-      <c r="E17">
-        <v>-6.1</v>
-      </c>
-      <c r="F17">
-        <v>-1.9</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" t="s">
-        <v>405</v>
-      </c>
-      <c r="I17" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E18">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="F18">
-        <v>14.2</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>407</v>
-      </c>
-      <c r="I18" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E19">
-        <v>-0.8</v>
-      </c>
-      <c r="F19">
-        <v>21.3</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>409</v>
-      </c>
-      <c r="I19" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20">
-        <v>-1</v>
-      </c>
-      <c r="E20">
-        <v>-2.6</v>
-      </c>
-      <c r="F20">
-        <v>0.8</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" t="s">
-        <v>411</v>
-      </c>
-      <c r="I20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21">
-        <v>10.6</v>
-      </c>
-      <c r="E21">
-        <v>1.8</v>
-      </c>
-      <c r="F21">
-        <v>20.3</v>
-      </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" t="s">
-        <v>412</v>
-      </c>
-      <c r="I21" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22">
-        <v>0.4</v>
-      </c>
-      <c r="E22">
-        <v>-1.7</v>
-      </c>
-      <c r="F22">
-        <v>2.5</v>
-      </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" t="s">
-        <v>414</v>
-      </c>
-      <c r="I22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="E23">
-        <v>-4.5</v>
-      </c>
-      <c r="F23">
-        <v>-0.1</v>
-      </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" t="s">
-        <v>415</v>
-      </c>
-      <c r="I23" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24">
-        <v>7.8</v>
-      </c>
-      <c r="E24">
-        <v>-2.7</v>
-      </c>
-      <c r="F24">
-        <v>19.5</v>
-      </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" t="s">
-        <v>416</v>
-      </c>
-      <c r="I24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25">
-        <v>13.5</v>
-      </c>
-      <c r="E25">
-        <v>0.2</v>
-      </c>
-      <c r="F25">
-        <v>28.6</v>
-      </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" t="s">
-        <v>417</v>
-      </c>
-      <c r="I25" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="E26">
-        <v>-3.8</v>
-      </c>
-      <c r="F26">
-        <v>-0.9</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" t="s">
-        <v>419</v>
-      </c>
-      <c r="I26" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>-6.2</v>
-      </c>
-      <c r="F27">
-        <v>6.5</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" t="s">
-        <v>420</v>
-      </c>
-      <c r="I27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28">
-        <v>-0.9</v>
-      </c>
-      <c r="E28">
-        <v>-2.6</v>
-      </c>
-      <c r="F28">
-        <v>0.9</v>
-      </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" t="s">
-        <v>421</v>
-      </c>
-      <c r="I28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29">
-        <v>-3.8</v>
-      </c>
-      <c r="E29">
-        <v>-5.4</v>
-      </c>
-      <c r="F29">
-        <v>-2.1</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" t="s">
-        <v>422</v>
-      </c>
-      <c r="I29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30">
-        <v>-7.8</v>
-      </c>
-      <c r="E30">
-        <v>-14.7</v>
-      </c>
-      <c r="F30">
-        <v>-0.5</v>
-      </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" t="s">
-        <v>423</v>
-      </c>
-      <c r="I30" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31">
-        <v>8.4</v>
-      </c>
-      <c r="E31">
-        <v>0.4</v>
-      </c>
-      <c r="F31">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" t="s">
-        <v>425</v>
-      </c>
-      <c r="I31" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="C1:C37" xr:uid="{00000000-0001-0000-0500-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Hospital-associated"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>-1.3</v>
-      </c>
-      <c r="E2">
-        <v>-4.9000000000000004</v>
-      </c>
-      <c r="F2">
-        <v>2.5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>427</v>
-      </c>
-      <c r="I2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>-4</v>
-      </c>
-      <c r="E3">
-        <v>-18.7</v>
-      </c>
-      <c r="F3">
-        <v>13.3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>428</v>
-      </c>
-      <c r="I3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>-0.3</v>
-      </c>
-      <c r="E4">
-        <v>-4</v>
-      </c>
-      <c r="F4">
-        <v>3.5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>430</v>
-      </c>
-      <c r="I4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="E5">
-        <v>-6.3</v>
-      </c>
-      <c r="F5">
-        <v>2.1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>431</v>
-      </c>
-      <c r="I5" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>-6.1</v>
-      </c>
-      <c r="E6">
-        <v>-21.8</v>
-      </c>
-      <c r="F6">
-        <v>12.8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>433</v>
-      </c>
-      <c r="I6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>-1.9</v>
-      </c>
-      <c r="E7">
-        <v>-19.8</v>
-      </c>
-      <c r="F7">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>434</v>
-      </c>
-      <c r="I7" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>-9.9</v>
-      </c>
-      <c r="E8">
-        <v>-12.8</v>
-      </c>
-      <c r="F8">
-        <v>-6.9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>436</v>
-      </c>
-      <c r="I8" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>26.3</v>
-      </c>
-      <c r="E9">
-        <v>10.8</v>
-      </c>
-      <c r="F9">
-        <v>43.9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>438</v>
-      </c>
-      <c r="I9" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>-10.4</v>
-      </c>
-      <c r="E10">
-        <v>-14.3</v>
-      </c>
-      <c r="F10">
-        <v>-6.3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>440</v>
-      </c>
-      <c r="I10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>-9.4</v>
-      </c>
-      <c r="E11">
-        <v>-12.2</v>
-      </c>
-      <c r="F11">
-        <v>-6.5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>442</v>
-      </c>
-      <c r="I11" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12">
-        <v>18.7</v>
-      </c>
-      <c r="E12">
-        <v>1.3</v>
-      </c>
-      <c r="F12">
-        <v>39</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>444</v>
-      </c>
-      <c r="I12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13">
-        <v>34.4</v>
-      </c>
-      <c r="E13">
-        <v>12.6</v>
-      </c>
-      <c r="F13">
-        <v>60.4</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>445</v>
-      </c>
-      <c r="I13" t="s">
-        <v>446</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="B1:C13" xr:uid="{00000000-0001-0000-0600-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Hospital-associated"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>0.2</v>
-      </c>
-      <c r="E2">
-        <v>-1.7</v>
-      </c>
-      <c r="F2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>447</v>
-      </c>
-      <c r="I2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>1.5</v>
-      </c>
-      <c r="E3">
-        <v>-4</v>
-      </c>
-      <c r="F3">
-        <v>7.3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>449</v>
-      </c>
-      <c r="I3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>1.4</v>
-      </c>
-      <c r="E4">
-        <v>-0.8</v>
-      </c>
-      <c r="F4">
-        <v>3.7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>450</v>
-      </c>
-      <c r="I4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>-0.9</v>
-      </c>
-      <c r="E5">
-        <v>-2.9</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>451</v>
-      </c>
-      <c r="I5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>-3.9</v>
-      </c>
-      <c r="E6">
-        <v>-9.6999999999999993</v>
-      </c>
-      <c r="F6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>452</v>
-      </c>
-      <c r="I6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>7.1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>14.8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>454</v>
-      </c>
-      <c r="I7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>-1.3</v>
-      </c>
-      <c r="E8">
-        <v>-4.0999999999999996</v>
-      </c>
-      <c r="F8">
-        <v>1.7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>455</v>
-      </c>
-      <c r="I8" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>13.7</v>
-      </c>
-      <c r="F9">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>456</v>
-      </c>
-      <c r="I9" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>-0.6</v>
-      </c>
-      <c r="E10">
-        <v>-3.3</v>
-      </c>
-      <c r="F10">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>458</v>
-      </c>
-      <c r="I10" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>-1.9</v>
-      </c>
-      <c r="E11">
-        <v>-5.5</v>
-      </c>
-      <c r="F11">
-        <v>1.8</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>460</v>
-      </c>
-      <c r="I11" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12">
-        <v>21.6</v>
-      </c>
-      <c r="E12">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F12">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>461</v>
-      </c>
-      <c r="I12" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13">
-        <v>30.5</v>
-      </c>
-      <c r="E13">
-        <v>14.1</v>
-      </c>
-      <c r="F13">
-        <v>49.3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>463</v>
-      </c>
-      <c r="I13" t="s">
-        <v>464</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="B1:C13" xr:uid="{00000000-0001-0000-0700-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Hospital-associated"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>-5.5</v>
-      </c>
-      <c r="E2">
-        <v>-6.7</v>
-      </c>
-      <c r="F2">
-        <v>-4.3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>465</v>
-      </c>
-      <c r="I2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
         <v>-4.5</v>
       </c>
       <c r="E3">
@@ -10621,7 +10453,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -10679,7 +10511,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -10738,13 +10570,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:C7" xr:uid="{00000000-0001-0000-0800-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Hospital-associated"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I7" xr:uid="{00000000-0001-0000-0800-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
